--- a/Output/Drive/4. Carencias.xlsx
+++ b/Output/Drive/4. Carencias.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1101">
   <si>
-    <t xml:space="preserve">Municipio</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Rezago educativo 2020%</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Carencia por acceso a la alimentación Personas 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">27.828474714599999</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">8093</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">33.163402797000003</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">22117</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">11.477405105900001</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">12570</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">24.5442372318</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">3350</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">15.665141866700001</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">3857</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">16.442133529100001</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">9922</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">13.9243913239</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">2996</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">12.7935551075</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">9610</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">12.9767855641</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">6824</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">9.8574611884000003</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">3574</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">22.064656751499999</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">13444</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">23.402169644200001</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">6395</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">10.1613247498</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">16603</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">26.698293808500001</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">5865</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">15.309870140299999</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">6005</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">19.952549230100001</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">15419</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">19.261043068999999</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">5191</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">25.877512190800001</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">4746</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">14.7597619138</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">7615</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">24.451410658299999</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">204</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">10.4141868289</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">2991</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">14.3581699803</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">3340</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">11.655800514199999</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">8451</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">24.587407840800001</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">6051</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">21.1335690931</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">6855</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">24.630468979500002</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">5242</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">33.590250853100002</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">11780</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">22.557053128</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">62604</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">17.026258290600001</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">9184</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">15.267491251699999</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">32542</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">23.329387069500001</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1555</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">27.2885383098</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">3936</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">25.299085151300002</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">304</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">24.333868378799998</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">2893</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">17.854880579300001</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">2475</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">18.264444925300001</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">1488</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">21.5209095825</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">5978</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">18.313850513599998</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">1190</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">11.448145030599999</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">3421</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">35.269282257199997</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1549</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162139146</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">10857</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">20.258103895800001</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">2115</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3389830508</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">1543</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">20.693735985</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">4961</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">17.311898512700001</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">1964</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">28.424039137000001</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">12517</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">32.100623521800003</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">494</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">8.8265366554</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">51208</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">24.480869224399999</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">5595</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">10.3917623262</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">4442</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">6.8566823386999998</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">29927</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">13.602025039899999</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">12642</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">33.650313801199999</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">5161</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">10.8491504931</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">11370</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">12.197165513</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">8090</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">15.563709407199999</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">4007</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">21.031275141999998</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">4459</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">18.3513802654</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">5615</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">19.127016195100001</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">11860</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">23.789756435400001</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">4842</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">10.144129896700001</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">9676</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">32.5878030553</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">8470</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">15.4018044225</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">18986</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">15.698480375400001</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">3278</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">15.170039128299999</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">2456</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">13.613193621600001</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">2768</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
+    <t xml:space="preserve">13067</t>
   </si>
   <si>
     <t xml:space="preserve">14.6001364583</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">15160</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">31.633480107899999</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">5225</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">10.0117042594</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">40216</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">13.1150725201</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">3932</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">36.785714285700003</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">645</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">10.035974084199999</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">2191</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">24.1064230683</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">20319</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">14.3361773321</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">5013</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">13.1486541</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">4955</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">11.2526770368</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">19461</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">15.407024918999999</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">26480</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">30.4250362264</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">9336</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">19.706770159600001</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">1142</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">30.1522277583</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">11914</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">18.307457815900001</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">7034</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">13.1823678299</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">4364</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">9.7308308090000004</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">11942</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">16.740715734399998</t>
